--- a/PA1/Tablas de optimizacion/Paralelizado_conNombres.xlsx
+++ b/PA1/Tablas de optimizacion/Paralelizado_conNombres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil\Desktop\Trabajos\Practicas\ADAV\PA1\Tablas de optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C165A94-7430-4489-960C-859A62CA1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD612D-9794-4106-9580-7B91560824FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B0A55F03-ED6B-4A8E-9091-67D24FFC1ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B0A55F03-ED6B-4A8E-9091-67D24FFC1ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>tmp1</t>
   </si>
@@ -92,16 +92,58 @@
     <t>tmp18</t>
   </si>
   <si>
-    <t>sv1</t>
-  </si>
-  <si>
-    <t>sv2</t>
-  </si>
-  <si>
-    <t>sv3</t>
-  </si>
-  <si>
-    <t>sv4</t>
+    <t>gtmp1</t>
+  </si>
+  <si>
+    <t>gtmp2</t>
+  </si>
+  <si>
+    <t>gtmp3</t>
+  </si>
+  <si>
+    <t>gtmp4</t>
+  </si>
+  <si>
+    <t>gtmp5</t>
+  </si>
+  <si>
+    <t>gtmp6</t>
+  </si>
+  <si>
+    <t>gtmp7</t>
+  </si>
+  <si>
+    <t>gtmp8</t>
+  </si>
+  <si>
+    <t>gtmp9</t>
+  </si>
+  <si>
+    <t>gtmp10</t>
+  </si>
+  <si>
+    <t>gtmp11</t>
+  </si>
+  <si>
+    <t>gtmp12</t>
+  </si>
+  <si>
+    <t>gtmp13</t>
+  </si>
+  <si>
+    <t>gtmp14</t>
+  </si>
+  <si>
+    <t>gtmp15</t>
+  </si>
+  <si>
+    <t>gtmp16</t>
+  </si>
+  <si>
+    <t>gtmp17</t>
+  </si>
+  <si>
+    <t>gtmp18</t>
   </si>
 </sst>
 </file>
@@ -131,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,14 +227,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,49 +575,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4632F3-E745-4045-9EAE-11BBC0114E62}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>4</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>5</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>6</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>8</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>9</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="6">
         <v>10</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>11</v>
-      </c>
-      <c r="M1" s="7">
-        <v>12</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -581,12 +628,12 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -598,26 +645,14 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -628,27 +663,15 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -658,28 +681,16 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
@@ -688,29 +699,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
@@ -728,29 +727,22 @@
         <v>4</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>5</v>
@@ -766,28 +758,20 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -804,27 +788,18 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -842,26 +817,16 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -878,21 +843,9 @@
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
@@ -900,8 +853,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -914,21 +867,10 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
@@ -937,28 +879,18 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
+      <c r="H12" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
@@ -968,27 +900,18 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
+      <c r="I13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
@@ -999,25 +922,17 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
+      <c r="J14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
@@ -1029,35 +944,30 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="5"/>
+      <c r="K15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="1"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>14</v>
@@ -1068,9 +978,6 @@
       <c r="L16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1081,20 +988,24 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="2" t="s">
-        <v>15</v>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1102,10 +1013,6 @@
       <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -1115,30 +1022,31 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2" t="s">
-        <v>16</v>
+      <c r="K18" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -1147,29 +1055,31 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="L19" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -1177,147 +1087,25 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
   </sheetData>
